--- a/rolleTODO.xlsx
+++ b/rolleTODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbderung/Documents/projects/git/JARED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96090816-CFF9-B041-B156-39FC856D6F1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF2E966D-5DC7-3447-AA58-5A16E66D9D33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="660" windowWidth="36180" windowHeight="20340" xr2:uid="{DAC31D40-F22A-2548-97A1-1ADEEF8790F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -310,12 +310,6 @@
     <t>aber dafür die Windpotentialgebiete, welche die Baubewilligung beinhalten (glaube ich)</t>
   </si>
   <si>
-    <t>bezüglich holz gibt es eine strategie auf kantonsebene. Ich habe jedoch keine Infos zu Rolle gefunden. Ich habe auch keine angaben dazu, wie aus einem Waldbestand ein Energiepotential errechnet wird…</t>
-  </si>
-  <si>
-    <t>Ich habe eine Graphik erstellt, welche zeigt in welcher Distanz zu Rolle wieviel Waldbestand (in ha) zu finden ist.</t>
-  </si>
-  <si>
     <t>warte auf daten. Die daten auf T decken nicht das gebiet von rolle ab</t>
   </si>
   <si>
@@ -331,6 +325,23 @@
     <t>&gt; kbob_nichtErneuerb
 &gt; endEnergie_awel
 &gt; primaerEnergie_awel</t>
+  </si>
+  <si>
+    <t>seewasser_nutzung</t>
+  </si>
+  <si>
+    <t>wasser</t>
+  </si>
+  <si>
+    <t>&gt; elevation
+&gt; aboveLake
+&gt; distanceLake</t>
+  </si>
+  <si>
+    <t>es wurden zwei masse für den zugang zum see berechnet, die horizontale distanz und der höhenunterschied.</t>
+  </si>
+  <si>
+    <t>Es wude berechnet, wieviel Holz aus dem Waldbestand in der Umgebung Rolle gewonnen werden kann. Die Berechnungen geschieht immer in Abhängigkeit der Distanz zu Rolle.</t>
   </si>
 </sst>
 </file>
@@ -338,7 +349,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -392,15 +403,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775671EE-8FA2-3D47-9942-AE78C3C7C933}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,32 +745,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -812,7 +823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -964,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1099,7 +1110,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
@@ -1150,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1172,7 +1183,7 @@
       <c r="G23" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1198,7 +1209,7 @@
       <c r="G24" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -1222,7 +1233,7 @@
       <c r="G25" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1247,7 +1258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1266,11 +1277,11 @@
       <c r="G27" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23</v>
       </c>
@@ -1289,9 +1300,7 @@
       <c r="G28" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1307,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1355,10 +1364,10 @@
         <v>62</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -1372,7 +1381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -1400,19 +1409,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E23" r:id="rId1" display="https://wind-data.ch/" xr:uid="{0D1B0B48-F367-954E-993A-A148F733462B}"/>
